--- a/biology/Botanique/Visnaga/Visnaga.xlsx
+++ b/biology/Botanique/Visnaga/Visnaga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Visnage
 Visnaga, en français Visnage, est un genre de plantes à fleurs de la famille des Apiaceae.
@@ -512,15 +524,17 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Plants of the World online (POWO)                (21 mars 2021)[2] et Catalogue of Life                                   (21 mars 2021)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Plants of the World online (POWO)                (21 mars 2021) et Catalogue of Life                                   (21 mars 2021) :
 Visnaga crinita (Guss.) Giardina &amp; Raimondo
 Visnaga daucoides Gaertn.
-Selon Tropicos                                           (21 mars 2021)[4] :
+Selon Tropicos                                           (21 mars 2021) :
 Visnaga daucoides Gaertn.
 Visnaga pinnatifolia Korovin
-Noms incorrects[5] :
+Noms incorrects :
 Visnaga major (L.) J.Vick (synonyme de Ammi majus L.)
 Visnaga meoides Raf. (synonyme de Artedia squamata L.)
 Visnaga vera Raf. (synonyme de Visnaga daucoides Gaertn.)
